--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5448717948717948</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3809523809523809</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9289617486338798</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05333333333333334</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5345345345345346</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6868686868686867</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5045045045045045</v>
+        <v>0.4924924924924925</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.05970423248667423</v>
+        <v>0.08434813099770327</v>
       </c>
       <c r="J2" t="n">
-        <v>671.7798854708549</v>
+        <v>1134.697488482237</v>
       </c>
       <c r="K2" t="n">
-        <v>578508.0816450177</v>
+        <v>1903937.308534792</v>
       </c>
       <c r="L2" t="n">
-        <v>760.5971875079592</v>
+        <v>1379.832347981012</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8924392235898218</v>
+        <v>0.6460049882795427</v>
       </c>
     </row>
   </sheetData>
